--- a/results/mp/logistic/corona/confidence/210/0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,21 @@
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crude</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -106,16 +103,19 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>wow</t>
@@ -124,34 +124,46 @@
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
@@ -160,72 +172,63 @@
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>better</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
@@ -235,9 +238,6 @@
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
   </si>
   <si>
     <t>.</t>
@@ -616,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,37 +774,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,16 +845,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5882352941176471</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8833333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -977,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8448275862068966</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4594594594594595</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,31 +1092,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>343</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L11">
+        <v>86</v>
+      </c>
+      <c r="M11">
+        <v>86</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.417989417989418</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8292682926829268</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3352713178294573</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C13">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8093994778067886</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,7 +1224,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -1245,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.793733681462141</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3050847457627119</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7887323943661971</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2266666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>320</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7830188679245284</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2080536912751678</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,37 +1424,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1333333333333333</v>
+        <v>0.006736842105263158</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>312</v>
+        <v>2359</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,37 +1474,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.07539682539682539</v>
+        <v>0.004508856682769726</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>233</v>
+        <v>3091</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>0.75</v>
       </c>
       <c r="L19">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,37 +1524,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005894736842105263</v>
+        <v>0.003015541637671074</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>0.22</v>
+        <v>0.57</v>
       </c>
       <c r="F20">
-        <v>0.78</v>
+        <v>0.43</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2361</v>
+        <v>4298</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.74375</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1569,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,87 +1574,63 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004190844616376531</v>
+        <v>0.002522802251115855</v>
       </c>
       <c r="C21">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
       <c r="F21">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3089</v>
+        <v>5140</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K21">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.003495145631067961</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <v>0.45</v>
-      </c>
-      <c r="F22">
-        <v>0.55</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>5132</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K22">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1669,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.723404255319149</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1695,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.6744186046511628</v>
+        <v>0.6875</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1747,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1773,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1799,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1825,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.6363636363636364</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1851,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.62</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1877,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.6071428571428571</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1903,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.6031746031746031</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1929,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1955,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.5852941176470589</v>
+        <v>0.58</v>
       </c>
       <c r="L34">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1981,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.5833333333333334</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2007,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2033,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.5648535564853556</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L37">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2059,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.5559322033898305</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L38">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M38">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2085,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.5425531914893617</v>
+        <v>0.525</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2111,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.5230769230769231</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2137,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2163,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.4848484848484849</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2189,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.449438202247191</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2215,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.4285714285714285</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2241,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.3725490196078431</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2267,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.3013698630136986</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2293,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.2888888888888889</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2324,16 +2297,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K48">
-        <v>0.282051282051282</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2345,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49">
-        <v>0.2711864406779661</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2371,73 +2344,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K50">
-        <v>0.01084236864053378</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M50">
         <v>14</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K51">
-        <v>0.008799497171590195</v>
+        <v>0.01583333333333333</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N51">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1577</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="K52">
-        <v>0.003210272873194221</v>
+        <v>0.003939745075318656</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>0.57</v>
@@ -2449,33 +2422,33 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>4968</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="K53">
-        <v>0.002914319020788809</v>
+        <v>0.003410914927768861</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="O53">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>5132</v>
+        <v>4967</v>
       </c>
     </row>
   </sheetData>
